--- a/database/Atlanta Tigers Game data.xlsx
+++ b/database/Atlanta Tigers Game data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="28">
   <si>
     <t>PlayerId</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Sophmore</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M780"/>
+  <dimension ref="A1:M782"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -5008,11 +5014,87 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>90</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>0.33</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="16"/>
@@ -7011,6 +7093,12 @@
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="16"/>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="16"/>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="16"/>
     </row>
   </sheetData>
 </worksheet>

--- a/database/Atlanta Tigers Game data.xlsx
+++ b/database/Atlanta Tigers Game data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="28">
   <si>
     <t>PlayerId</t>
   </si>
@@ -430,7 +430,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M782"/>
+  <dimension ref="A1:M783"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -5096,8 +5096,46 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>90</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>0.33</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
@@ -7099,6 +7137,9 @@
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" s="16"/>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="16"/>
     </row>
   </sheetData>
 </worksheet>

--- a/database/Atlanta Tigers Game data.xlsx
+++ b/database/Atlanta Tigers Game data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="27">
   <si>
     <t>PlayerId</t>
   </si>
@@ -85,16 +85,13 @@
     <t>Ridgeway</t>
   </si>
   <si>
-    <t>04/11</t>
-  </si>
-  <si>
     <t>Sophmore</t>
   </si>
   <si>
-    <t>2023-01-13</t>
+    <t>01/01</t>
   </si>
   <si>
-    <t>string</t>
+    <t>Team A</t>
   </si>
 </sst>
 </file>
@@ -430,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M783"/>
+  <dimension ref="A1:M780"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -892,1297 +889,1297 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>0.33</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="B13" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
         <v>0</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>4</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3</v>
-      </c>
-      <c r="G14" s="10">
-        <v>3</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="B14" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
         <v>0</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="6">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6">
-        <v>4</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="B15" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.333</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10">
         <v>0</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.333</v>
-      </c>
-      <c r="E16" s="10">
-        <v>4</v>
-      </c>
-      <c r="F16" s="10">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
-        <v>2</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10">
-        <v>2</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
+      <c r="B16" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
         <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="B17" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
         <v>0</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>2</v>
-      </c>
-      <c r="F18" s="10">
-        <v>2</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0</v>
-      </c>
-      <c r="L18" s="10">
+      <c r="B18" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
         <v>0</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="B19" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
         <v>0</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>4</v>
-      </c>
-      <c r="F20" s="10">
-        <v>3</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0</v>
-      </c>
-      <c r="L20" s="10">
+      <c r="B20" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
         <v>0</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="B21" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
         <v>0</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0</v>
-      </c>
-      <c r="L22" s="10">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
         <v>0</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
-      <c r="B23" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>0</v>
-      </c>
-      <c r="J23" s="12">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
+      <c r="B23" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
         <v>0</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
+      <c r="B24" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
         <v>0</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="B25" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="10">
         <v>0</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>3</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0</v>
-      </c>
-      <c r="J26" s="10">
-        <v>0</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0</v>
-      </c>
-      <c r="L26" s="10">
+      <c r="B26" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
         <v>0</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="6">
-        <v>2</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
+      <c r="B27" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10">
         <v>0</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0</v>
-      </c>
-      <c r="L28" s="10">
+      <c r="B28" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
         <v>0</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="B29" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10">
         <v>0</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0</v>
-      </c>
-      <c r="L30" s="10">
+      <c r="B30" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
         <v>0</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>3</v>
       </c>
-      <c r="B31" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="B31" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10">
         <v>0</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3</v>
-      </c>
-      <c r="B32" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>2</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0</v>
-      </c>
-      <c r="L32" s="10">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>2</v>
+      </c>
+      <c r="F32" s="12">
+        <v>2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
         <v>0</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>2</v>
-      </c>
-      <c r="F33" s="12">
-        <v>2</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
-        <v>0</v>
-      </c>
-      <c r="J33" s="12">
-        <v>0</v>
-      </c>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
-      <c r="L33" s="12">
+      <c r="B33" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
         <v>0</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>4</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>3</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0</v>
-      </c>
-      <c r="L34" s="10">
+      <c r="B34" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="6">
+        <v>4</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
         <v>0</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
-      <c r="B35" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="6">
-        <v>4</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>1</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
+      <c r="B35" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.333</v>
+      </c>
+      <c r="E35" s="10">
+        <v>4</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10">
+        <v>2</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
         <v>0</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4</v>
       </c>
-      <c r="B36" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.333</v>
-      </c>
-      <c r="E36" s="10">
-        <v>4</v>
-      </c>
-      <c r="F36" s="10">
-        <v>3</v>
-      </c>
-      <c r="G36" s="10">
-        <v>2</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0</v>
-      </c>
-      <c r="L36" s="10">
+      <c r="B36" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6">
+        <v>2</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
         <v>0</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>4</v>
-      </c>
-      <c r="F37" s="6">
-        <v>2</v>
-      </c>
-      <c r="G37" s="6">
-        <v>2</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
+      <c r="B37" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.333</v>
+      </c>
+      <c r="E37" s="10">
+        <v>3</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <v>0</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
         <v>0</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.333</v>
-      </c>
-      <c r="E38" s="10">
-        <v>3</v>
-      </c>
-      <c r="F38" s="10">
-        <v>3</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0</v>
-      </c>
-      <c r="J38" s="10">
-        <v>0</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0</v>
-      </c>
-      <c r="L38" s="10">
+      <c r="B38" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
         <v>0</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>4</v>
       </c>
-      <c r="B39" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>3</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
+      <c r="B39" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>3</v>
+      </c>
+      <c r="F39" s="10">
+        <v>2</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
         <v>0</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
-      <c r="B40" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>3</v>
-      </c>
-      <c r="F40" s="10">
-        <v>2</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1</v>
-      </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10">
-        <v>0</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0</v>
-      </c>
-      <c r="L40" s="10">
+      <c r="B40" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
         <v>0</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>4</v>
       </c>
-      <c r="B41" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="6">
-        <v>0</v>
-      </c>
-      <c r="E41" s="6">
-        <v>3</v>
-      </c>
-      <c r="F41" s="6">
-        <v>3</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="B41" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>4</v>
+      </c>
+      <c r="F41" s="10">
+        <v>4</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10">
         <v>0</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>4</v>
-      </c>
-      <c r="B42" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>4</v>
-      </c>
-      <c r="F42" s="10">
-        <v>4</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10">
-        <v>0</v>
-      </c>
-      <c r="K42" s="10">
-        <v>0</v>
-      </c>
-      <c r="L42" s="10">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0</v>
+      </c>
+      <c r="L42" s="12">
         <v>0</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>5</v>
       </c>
-      <c r="B43" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="B43" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="10">
         <v>0.5</v>
       </c>
-      <c r="E43" s="12">
-        <v>2</v>
-      </c>
-      <c r="F43" s="12">
-        <v>2</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12">
-        <v>1</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
-        <v>0</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0</v>
-      </c>
-      <c r="L43" s="12">
+      <c r="E43" s="10">
+        <v>4</v>
+      </c>
+      <c r="F43" s="10">
+        <v>2</v>
+      </c>
+      <c r="G43" s="10">
+        <v>3</v>
+      </c>
+      <c r="H43" s="10">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
+        <v>2</v>
+      </c>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
         <v>0</v>
       </c>
       <c r="M43" s="12" t="s">
@@ -2193,37 +2190,37 @@
       <c r="A44" s="1">
         <v>5</v>
       </c>
-      <c r="B44" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="10">
-        <v>4</v>
-      </c>
-      <c r="F44" s="10">
-        <v>2</v>
-      </c>
-      <c r="G44" s="10">
-        <v>3</v>
-      </c>
-      <c r="H44" s="10">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10">
-        <v>2</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0</v>
-      </c>
-      <c r="K44" s="10">
-        <v>0</v>
-      </c>
-      <c r="L44" s="10">
+      <c r="B44" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E44" s="6">
+        <v>4</v>
+      </c>
+      <c r="F44" s="6">
+        <v>4</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>3</v>
+      </c>
+      <c r="I44" s="6">
+        <v>2</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
         <v>0</v>
       </c>
       <c r="M44" s="12" t="s">
@@ -2234,37 +2231,37 @@
       <c r="A45" s="1">
         <v>5</v>
       </c>
-      <c r="B45" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="E45" s="6">
-        <v>4</v>
-      </c>
-      <c r="F45" s="6">
-        <v>4</v>
-      </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-      <c r="H45" s="6">
-        <v>3</v>
-      </c>
-      <c r="I45" s="6">
-        <v>2</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
+      <c r="B45" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>3</v>
+      </c>
+      <c r="F45" s="10">
+        <v>3</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10">
+        <v>3</v>
+      </c>
+      <c r="I45" s="10">
+        <v>3</v>
+      </c>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
         <v>0</v>
       </c>
       <c r="M45" s="12" t="s">
@@ -2275,37 +2272,37 @@
       <c r="A46" s="1">
         <v>5</v>
       </c>
-      <c r="B46" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10">
-        <v>3</v>
-      </c>
-      <c r="F46" s="10">
-        <v>3</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1</v>
-      </c>
-      <c r="H46" s="10">
-        <v>3</v>
-      </c>
-      <c r="I46" s="10">
-        <v>3</v>
-      </c>
-      <c r="J46" s="10">
-        <v>0</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0</v>
-      </c>
-      <c r="L46" s="10">
+      <c r="B46" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>5</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6">
+        <v>3</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
         <v>0</v>
       </c>
       <c r="M46" s="12" t="s">
@@ -2316,37 +2313,37 @@
       <c r="A47" s="1">
         <v>5</v>
       </c>
-      <c r="B47" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>5</v>
-      </c>
-      <c r="F47" s="6">
-        <v>3</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>3</v>
-      </c>
-      <c r="I47" s="6">
-        <v>2</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
+      <c r="B47" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>4</v>
+      </c>
+      <c r="F47" s="10">
+        <v>3</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10">
         <v>0</v>
       </c>
       <c r="M47" s="12" t="s">
@@ -2357,37 +2354,37 @@
       <c r="A48" s="1">
         <v>5</v>
       </c>
-      <c r="B48" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="10">
-        <v>4</v>
-      </c>
-      <c r="F48" s="10">
-        <v>3</v>
-      </c>
-      <c r="G48" s="10">
-        <v>1</v>
-      </c>
-      <c r="H48" s="10">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10">
-        <v>0</v>
-      </c>
-      <c r="J48" s="10">
-        <v>0</v>
-      </c>
-      <c r="K48" s="10">
-        <v>0</v>
-      </c>
-      <c r="L48" s="10">
+      <c r="B48" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
         <v>0</v>
       </c>
       <c r="M48" s="12" t="s">
@@ -2398,37 +2395,37 @@
       <c r="A49" s="1">
         <v>5</v>
       </c>
-      <c r="B49" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4</v>
-      </c>
-      <c r="F49" s="6">
-        <v>4</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
+      <c r="B49" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.667</v>
+      </c>
+      <c r="E49" s="10">
+        <v>3</v>
+      </c>
+      <c r="F49" s="10">
+        <v>3</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <v>2</v>
+      </c>
+      <c r="I49" s="10">
+        <v>1</v>
+      </c>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+      <c r="L49" s="10">
         <v>0</v>
       </c>
       <c r="M49" s="12" t="s">
@@ -2439,37 +2436,37 @@
       <c r="A50" s="1">
         <v>5</v>
       </c>
-      <c r="B50" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="E50" s="10">
-        <v>3</v>
-      </c>
-      <c r="F50" s="10">
-        <v>3</v>
-      </c>
-      <c r="G50" s="10">
-        <v>1</v>
-      </c>
-      <c r="H50" s="10">
-        <v>2</v>
-      </c>
-      <c r="I50" s="10">
-        <v>1</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0</v>
-      </c>
-      <c r="L50" s="10">
+      <c r="B50" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
         <v>0</v>
       </c>
       <c r="M50" s="12" t="s">
@@ -2480,37 +2477,37 @@
       <c r="A51" s="1">
         <v>5</v>
       </c>
-      <c r="B51" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0</v>
-      </c>
-      <c r="E51" s="6">
-        <v>3</v>
-      </c>
-      <c r="F51" s="6">
-        <v>3</v>
-      </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
+      <c r="B51" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="10">
+        <v>4</v>
+      </c>
+      <c r="F51" s="10">
+        <v>4</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>2</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
         <v>0</v>
       </c>
       <c r="M51" s="12" t="s">
@@ -2519,39 +2516,39 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>5</v>
-      </c>
-      <c r="B52" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="10">
-        <v>4</v>
-      </c>
-      <c r="F52" s="10">
-        <v>4</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <v>2</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0</v>
-      </c>
-      <c r="K52" s="10">
-        <v>0</v>
-      </c>
-      <c r="L52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
+        <v>3</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1</v>
+      </c>
+      <c r="G52" s="12">
+        <v>2</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0</v>
+      </c>
+      <c r="I52" s="12">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="12">
+        <v>0</v>
+      </c>
+      <c r="L52" s="12">
         <v>0</v>
       </c>
       <c r="M52" s="12" t="s">
@@ -2562,37 +2559,37 @@
       <c r="A53" s="1">
         <v>6</v>
       </c>
-      <c r="B53" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="12">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12">
-        <v>3</v>
-      </c>
-      <c r="F53" s="12">
-        <v>1</v>
-      </c>
-      <c r="G53" s="12">
-        <v>2</v>
-      </c>
-      <c r="H53" s="12">
-        <v>0</v>
-      </c>
-      <c r="I53" s="12">
-        <v>0</v>
-      </c>
-      <c r="J53" s="12">
-        <v>0</v>
-      </c>
-      <c r="K53" s="12">
-        <v>0</v>
-      </c>
-      <c r="L53" s="12">
+      <c r="B53" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <v>3</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+      <c r="J53" s="10">
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="10">
         <v>0</v>
       </c>
       <c r="M53" s="12" t="s">
@@ -2603,37 +2600,37 @@
       <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
-        <v>3</v>
-      </c>
-      <c r="F54" s="10">
-        <v>1</v>
-      </c>
-      <c r="G54" s="10">
-        <v>1</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-      <c r="I54" s="10">
-        <v>1</v>
-      </c>
-      <c r="J54" s="10">
-        <v>0</v>
-      </c>
-      <c r="K54" s="10">
-        <v>0</v>
-      </c>
-      <c r="L54" s="10">
+      <c r="B54" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
         <v>0</v>
       </c>
       <c r="M54" s="12" t="s">
@@ -2644,37 +2641,37 @@
       <c r="A55" s="1">
         <v>6</v>
       </c>
-      <c r="B55" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="6">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6">
-        <v>2</v>
-      </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
+      <c r="B55" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <v>2</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0</v>
+      </c>
+      <c r="K55" s="10">
+        <v>0</v>
+      </c>
+      <c r="L55" s="10">
         <v>0</v>
       </c>
       <c r="M55" s="12" t="s">
@@ -2685,37 +2682,35 @@
       <c r="A56" s="1">
         <v>6</v>
       </c>
-      <c r="B56" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="10">
-        <v>2</v>
-      </c>
-      <c r="F56" s="10">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10">
-        <v>1</v>
-      </c>
-      <c r="H56" s="10">
-        <v>0</v>
-      </c>
-      <c r="I56" s="10">
-        <v>0</v>
-      </c>
-      <c r="J56" s="10">
-        <v>0</v>
-      </c>
-      <c r="K56" s="10">
-        <v>0</v>
-      </c>
-      <c r="L56" s="10">
+      <c r="B56" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="15"/>
+      <c r="E56" s="6">
+        <v>2</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
         <v>0</v>
       </c>
       <c r="M56" s="12" t="s">
@@ -2726,35 +2721,37 @@
       <c r="A57" s="1">
         <v>6</v>
       </c>
-      <c r="B57" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="6">
-        <v>2</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6">
-        <v>1</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6">
+      <c r="B57" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>5</v>
+      </c>
+      <c r="F57" s="10">
+        <v>2</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+      <c r="J57" s="10">
+        <v>0</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
         <v>0</v>
       </c>
       <c r="M57" s="12" t="s">
@@ -2765,37 +2762,37 @@
       <c r="A58" s="1">
         <v>6</v>
       </c>
-      <c r="B58" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0</v>
-      </c>
-      <c r="E58" s="10">
-        <v>5</v>
-      </c>
-      <c r="F58" s="10">
-        <v>2</v>
-      </c>
-      <c r="G58" s="10">
-        <v>2</v>
-      </c>
-      <c r="H58" s="10">
-        <v>0</v>
-      </c>
-      <c r="I58" s="10">
-        <v>0</v>
-      </c>
-      <c r="J58" s="10">
-        <v>0</v>
-      </c>
-      <c r="K58" s="10">
-        <v>0</v>
-      </c>
-      <c r="L58" s="10">
+      <c r="B58" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>3</v>
+      </c>
+      <c r="F58" s="6">
+        <v>2</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
         <v>0</v>
       </c>
       <c r="M58" s="12" t="s">
@@ -2806,37 +2803,37 @@
       <c r="A59" s="1">
         <v>6</v>
       </c>
-      <c r="B59" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>3</v>
-      </c>
-      <c r="F59" s="6">
-        <v>2</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0</v>
-      </c>
-      <c r="L59" s="6">
+      <c r="B59" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E59" s="10">
+        <v>5</v>
+      </c>
+      <c r="F59" s="10">
+        <v>5</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+      <c r="H59" s="10">
+        <v>3</v>
+      </c>
+      <c r="I59" s="10">
+        <v>2</v>
+      </c>
+      <c r="J59" s="10">
+        <v>3</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
         <v>0</v>
       </c>
       <c r="M59" s="12" t="s">
@@ -2847,37 +2844,37 @@
       <c r="A60" s="1">
         <v>6</v>
       </c>
-      <c r="B60" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="E60" s="10">
-        <v>5</v>
-      </c>
-      <c r="F60" s="10">
-        <v>5</v>
-      </c>
-      <c r="G60" s="10">
-        <v>1</v>
-      </c>
-      <c r="H60" s="10">
-        <v>3</v>
-      </c>
-      <c r="I60" s="10">
-        <v>2</v>
-      </c>
-      <c r="J60" s="10">
-        <v>3</v>
-      </c>
-      <c r="K60" s="10">
-        <v>0</v>
-      </c>
-      <c r="L60" s="10">
+      <c r="B60" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="6">
+        <v>2</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
         <v>0</v>
       </c>
       <c r="M60" s="12" t="s">
@@ -2888,37 +2885,37 @@
       <c r="A61" s="1">
         <v>6</v>
       </c>
-      <c r="B61" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="6">
-        <v>2</v>
-      </c>
-      <c r="F61" s="6">
-        <v>2</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6">
-        <v>1</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0</v>
-      </c>
-      <c r="J61" s="6">
-        <v>0</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0</v>
-      </c>
-      <c r="L61" s="6">
+      <c r="B61" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
+        <v>0</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="10">
         <v>0</v>
       </c>
       <c r="M61" s="12" t="s">
@@ -2927,39 +2924,39 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>6</v>
-      </c>
-      <c r="B62" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1</v>
-      </c>
-      <c r="F62" s="10">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0</v>
-      </c>
-      <c r="I62" s="10">
-        <v>0</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0</v>
-      </c>
-      <c r="K62" s="10">
-        <v>0</v>
-      </c>
-      <c r="L62" s="10">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1</v>
+      </c>
+      <c r="E62" s="12">
+        <v>1</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>1</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="12">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+      <c r="K62" s="12">
+        <v>0</v>
+      </c>
+      <c r="L62" s="12">
         <v>0</v>
       </c>
       <c r="M62" s="12" t="s">
@@ -2970,37 +2967,37 @@
       <c r="A63" s="1">
         <v>7</v>
       </c>
-      <c r="B63" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="12">
-        <v>1</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12">
-        <v>1</v>
-      </c>
-      <c r="G63" s="12">
-        <v>1</v>
-      </c>
-      <c r="H63" s="12">
-        <v>1</v>
-      </c>
-      <c r="I63" s="12">
-        <v>1</v>
-      </c>
-      <c r="J63" s="12">
-        <v>1</v>
-      </c>
-      <c r="K63" s="12">
-        <v>0</v>
-      </c>
-      <c r="L63" s="12">
+      <c r="B63" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <v>2</v>
+      </c>
+      <c r="F63" s="10">
+        <v>1</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>1</v>
+      </c>
+      <c r="J63" s="10">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0</v>
+      </c>
+      <c r="L63" s="10">
         <v>0</v>
       </c>
       <c r="M63" s="12" t="s">
@@ -3011,37 +3008,37 @@
       <c r="A64" s="1">
         <v>7</v>
       </c>
-      <c r="B64" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="10">
-        <v>2</v>
-      </c>
-      <c r="F64" s="10">
-        <v>1</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0</v>
-      </c>
-      <c r="I64" s="10">
-        <v>1</v>
-      </c>
-      <c r="J64" s="10">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10">
-        <v>0</v>
-      </c>
-      <c r="L64" s="10">
+      <c r="B64" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1</v>
+      </c>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
         <v>0</v>
       </c>
       <c r="M64" s="12" t="s">
@@ -3052,37 +3049,37 @@
       <c r="A65" s="1">
         <v>7</v>
       </c>
-      <c r="B65" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="6">
-        <v>2</v>
-      </c>
-      <c r="F65" s="6">
-        <v>2</v>
-      </c>
-      <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <v>1</v>
-      </c>
-      <c r="I65" s="6">
-        <v>0</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="6">
-        <v>0</v>
-      </c>
-      <c r="L65" s="6">
+      <c r="B65" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
+        <v>2</v>
+      </c>
+      <c r="F65" s="10">
+        <v>2</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
+        <v>1</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
         <v>0</v>
       </c>
       <c r="M65" s="12" t="s">
@@ -3093,37 +3090,37 @@
       <c r="A66" s="1">
         <v>7</v>
       </c>
-      <c r="B66" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0</v>
-      </c>
-      <c r="E66" s="10">
-        <v>2</v>
-      </c>
-      <c r="F66" s="10">
-        <v>2</v>
-      </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <v>0</v>
-      </c>
-      <c r="I66" s="10">
-        <v>1</v>
-      </c>
-      <c r="J66" s="10">
-        <v>0</v>
-      </c>
-      <c r="K66" s="10">
-        <v>0</v>
-      </c>
-      <c r="L66" s="10">
+      <c r="B66" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
         <v>0</v>
       </c>
       <c r="M66" s="12" t="s">
@@ -3134,37 +3131,37 @@
       <c r="A67" s="1">
         <v>7</v>
       </c>
-      <c r="B67" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="6">
+      <c r="B67" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="10">
         <v>0.5</v>
       </c>
-      <c r="E67" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" s="6">
-        <v>2</v>
-      </c>
-      <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <v>1</v>
-      </c>
-      <c r="I67" s="6">
-        <v>0</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0</v>
-      </c>
-      <c r="L67" s="6">
+      <c r="E67" s="10">
+        <v>4</v>
+      </c>
+      <c r="F67" s="10">
+        <v>4</v>
+      </c>
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <v>2</v>
+      </c>
+      <c r="I67" s="10">
+        <v>1</v>
+      </c>
+      <c r="J67" s="10">
+        <v>0</v>
+      </c>
+      <c r="K67" s="10">
+        <v>0</v>
+      </c>
+      <c r="L67" s="10">
         <v>0</v>
       </c>
       <c r="M67" s="12" t="s">
@@ -3175,37 +3172,37 @@
       <c r="A68" s="1">
         <v>7</v>
       </c>
-      <c r="B68" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="10">
+      <c r="B68" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="6">
         <v>0.5</v>
       </c>
-      <c r="E68" s="10">
-        <v>4</v>
-      </c>
-      <c r="F68" s="10">
-        <v>4</v>
-      </c>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
-      <c r="H68" s="10">
-        <v>2</v>
-      </c>
-      <c r="I68" s="10">
-        <v>1</v>
-      </c>
-      <c r="J68" s="10">
-        <v>0</v>
-      </c>
-      <c r="K68" s="10">
-        <v>0</v>
-      </c>
-      <c r="L68" s="10">
+      <c r="E68" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2</v>
+      </c>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="6">
         <v>0</v>
       </c>
       <c r="M68" s="12" t="s">
@@ -3216,37 +3213,37 @@
       <c r="A69" s="1">
         <v>7</v>
       </c>
-      <c r="B69" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" s="6">
-        <v>2</v>
-      </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <v>1</v>
-      </c>
-      <c r="I69" s="6">
-        <v>1</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
+      <c r="B69" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="10">
+        <v>1</v>
+      </c>
+      <c r="E69" s="10">
+        <v>4</v>
+      </c>
+      <c r="F69" s="10">
+        <v>4</v>
+      </c>
+      <c r="G69" s="10">
+        <v>2</v>
+      </c>
+      <c r="H69" s="10">
+        <v>4</v>
+      </c>
+      <c r="I69" s="10">
+        <v>1</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0</v>
+      </c>
+      <c r="K69" s="10">
+        <v>0</v>
+      </c>
+      <c r="L69" s="10">
         <v>0</v>
       </c>
       <c r="M69" s="12" t="s">
@@ -3257,37 +3254,37 @@
       <c r="A70" s="1">
         <v>7</v>
       </c>
-      <c r="B70" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="10">
-        <v>1</v>
-      </c>
-      <c r="E70" s="10">
-        <v>4</v>
-      </c>
-      <c r="F70" s="10">
-        <v>4</v>
-      </c>
-      <c r="G70" s="10">
-        <v>2</v>
-      </c>
-      <c r="H70" s="10">
-        <v>4</v>
-      </c>
-      <c r="I70" s="10">
-        <v>1</v>
-      </c>
-      <c r="J70" s="10">
-        <v>0</v>
-      </c>
-      <c r="K70" s="10">
-        <v>0</v>
-      </c>
-      <c r="L70" s="10">
+      <c r="B70" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2</v>
+      </c>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
         <v>0</v>
       </c>
       <c r="M70" s="12" t="s">
@@ -3298,37 +3295,37 @@
       <c r="A71" s="1">
         <v>7</v>
       </c>
-      <c r="B71" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6">
-        <v>2</v>
-      </c>
-      <c r="F71" s="6">
-        <v>2</v>
-      </c>
-      <c r="G71" s="6">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
+      <c r="B71" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
+        <v>0</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0</v>
+      </c>
+      <c r="K71" s="10">
+        <v>0</v>
+      </c>
+      <c r="L71" s="10">
         <v>0</v>
       </c>
       <c r="M71" s="12" t="s">
@@ -3337,39 +3334,39 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>7</v>
-      </c>
-      <c r="B72" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0</v>
-      </c>
-      <c r="E72" s="10">
-        <v>1</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10">
-        <v>0</v>
-      </c>
-      <c r="H72" s="10">
-        <v>0</v>
-      </c>
-      <c r="I72" s="10">
-        <v>0</v>
-      </c>
-      <c r="J72" s="10">
-        <v>0</v>
-      </c>
-      <c r="K72" s="10">
-        <v>0</v>
-      </c>
-      <c r="L72" s="10">
+        <v>8</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+      <c r="E72" s="12">
+        <v>3</v>
+      </c>
+      <c r="F72" s="12">
+        <v>1</v>
+      </c>
+      <c r="G72" s="12">
+        <v>2</v>
+      </c>
+      <c r="H72" s="12">
+        <v>1</v>
+      </c>
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+      <c r="K72" s="12">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
         <v>0</v>
       </c>
       <c r="M72" s="12" t="s">
@@ -3380,37 +3377,37 @@
       <c r="A73" s="1">
         <v>8</v>
       </c>
-      <c r="B73" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="12">
-        <v>1</v>
-      </c>
-      <c r="E73" s="12">
-        <v>3</v>
-      </c>
-      <c r="F73" s="12">
-        <v>1</v>
-      </c>
-      <c r="G73" s="12">
-        <v>2</v>
-      </c>
-      <c r="H73" s="12">
-        <v>1</v>
-      </c>
-      <c r="I73" s="12">
-        <v>0</v>
-      </c>
-      <c r="J73" s="12">
-        <v>0</v>
-      </c>
-      <c r="K73" s="12">
-        <v>0</v>
-      </c>
-      <c r="L73" s="12">
+      <c r="B73" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="10">
+        <v>4</v>
+      </c>
+      <c r="F73" s="10">
+        <v>4</v>
+      </c>
+      <c r="G73" s="10">
+        <v>2</v>
+      </c>
+      <c r="H73" s="10">
+        <v>2</v>
+      </c>
+      <c r="I73" s="10">
+        <v>1</v>
+      </c>
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0</v>
+      </c>
+      <c r="L73" s="10">
         <v>0</v>
       </c>
       <c r="M73" s="12" t="s">
@@ -3421,37 +3418,37 @@
       <c r="A74" s="1">
         <v>8</v>
       </c>
-      <c r="B74" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E74" s="10">
-        <v>4</v>
-      </c>
-      <c r="F74" s="10">
-        <v>4</v>
-      </c>
-      <c r="G74" s="10">
-        <v>2</v>
-      </c>
-      <c r="H74" s="10">
-        <v>2</v>
-      </c>
-      <c r="I74" s="10">
-        <v>1</v>
-      </c>
-      <c r="J74" s="10">
-        <v>0</v>
-      </c>
-      <c r="K74" s="10">
-        <v>0</v>
-      </c>
-      <c r="L74" s="10">
+      <c r="B74" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0</v>
+      </c>
+      <c r="E74" s="6">
+        <v>4</v>
+      </c>
+      <c r="F74" s="6">
+        <v>3</v>
+      </c>
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
         <v>0</v>
       </c>
       <c r="M74" s="12" t="s">
@@ -3462,37 +3459,37 @@
       <c r="A75" s="1">
         <v>8</v>
       </c>
-      <c r="B75" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <v>4</v>
-      </c>
-      <c r="F75" s="6">
-        <v>3</v>
-      </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <v>0</v>
-      </c>
-      <c r="K75" s="6">
-        <v>0</v>
-      </c>
-      <c r="L75" s="6">
+      <c r="B75" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
+        <v>4</v>
+      </c>
+      <c r="F75" s="10">
+        <v>2</v>
+      </c>
+      <c r="G75" s="10">
+        <v>1</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0</v>
+      </c>
+      <c r="K75" s="10">
+        <v>0</v>
+      </c>
+      <c r="L75" s="10">
         <v>0</v>
       </c>
       <c r="M75" s="12" t="s">
@@ -3503,37 +3500,37 @@
       <c r="A76" s="1">
         <v>8</v>
       </c>
-      <c r="B76" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0</v>
-      </c>
-      <c r="E76" s="10">
-        <v>4</v>
-      </c>
-      <c r="F76" s="10">
-        <v>2</v>
-      </c>
-      <c r="G76" s="10">
-        <v>1</v>
-      </c>
-      <c r="H76" s="10">
-        <v>0</v>
-      </c>
-      <c r="I76" s="10">
-        <v>0</v>
-      </c>
-      <c r="J76" s="10">
-        <v>0</v>
-      </c>
-      <c r="K76" s="10">
-        <v>0</v>
-      </c>
-      <c r="L76" s="10">
+      <c r="B76" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <v>4</v>
+      </c>
+      <c r="F76" s="6">
+        <v>4</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
         <v>0</v>
       </c>
       <c r="M76" s="12" t="s">
@@ -3544,37 +3541,35 @@
       <c r="A77" s="1">
         <v>8</v>
       </c>
-      <c r="B77" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="6">
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <v>4</v>
-      </c>
-      <c r="F77" s="6">
-        <v>4</v>
-      </c>
-      <c r="G77" s="6">
-        <v>0</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0</v>
-      </c>
-      <c r="L77" s="6">
+      <c r="B77" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10">
+        <v>0</v>
+      </c>
+      <c r="G77" s="10">
+        <v>1</v>
+      </c>
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="10">
+        <v>1</v>
+      </c>
+      <c r="J77" s="10">
+        <v>0</v>
+      </c>
+      <c r="K77" s="10">
+        <v>0</v>
+      </c>
+      <c r="L77" s="10">
         <v>0</v>
       </c>
       <c r="M77" s="12" t="s">
@@ -3585,35 +3580,37 @@
       <c r="A78" s="1">
         <v>8</v>
       </c>
-      <c r="B78" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="10">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10">
-        <v>1</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
-      <c r="I78" s="10">
-        <v>1</v>
-      </c>
-      <c r="J78" s="10">
-        <v>0</v>
-      </c>
-      <c r="K78" s="10">
-        <v>0</v>
-      </c>
-      <c r="L78" s="10">
+      <c r="B78" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.333</v>
+      </c>
+      <c r="E78" s="6">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6">
+        <v>3</v>
+      </c>
+      <c r="G78" s="6">
+        <v>1</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0</v>
+      </c>
+      <c r="L78" s="6">
         <v>0</v>
       </c>
       <c r="M78" s="12" t="s">
@@ -3624,37 +3621,37 @@
       <c r="A79" s="1">
         <v>8</v>
       </c>
-      <c r="B79" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="6">
-        <v>0.333</v>
-      </c>
-      <c r="E79" s="6">
-        <v>3</v>
-      </c>
-      <c r="F79" s="6">
-        <v>3</v>
-      </c>
-      <c r="G79" s="6">
-        <v>1</v>
-      </c>
-      <c r="H79" s="6">
-        <v>1</v>
-      </c>
-      <c r="I79" s="6">
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
+      <c r="B79" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <v>3</v>
+      </c>
+      <c r="F79" s="10">
+        <v>2</v>
+      </c>
+      <c r="G79" s="10">
+        <v>1</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0</v>
+      </c>
+      <c r="K79" s="10">
+        <v>0</v>
+      </c>
+      <c r="L79" s="10">
         <v>0</v>
       </c>
       <c r="M79" s="12" t="s">
@@ -3665,37 +3662,37 @@
       <c r="A80" s="1">
         <v>8</v>
       </c>
-      <c r="B80" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0</v>
-      </c>
-      <c r="E80" s="10">
-        <v>3</v>
-      </c>
-      <c r="F80" s="10">
-        <v>2</v>
-      </c>
-      <c r="G80" s="10">
-        <v>1</v>
-      </c>
-      <c r="H80" s="10">
-        <v>0</v>
-      </c>
-      <c r="I80" s="10">
-        <v>0</v>
-      </c>
-      <c r="J80" s="10">
-        <v>0</v>
-      </c>
-      <c r="K80" s="10">
-        <v>0</v>
-      </c>
-      <c r="L80" s="10">
+      <c r="B80" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" s="6">
+        <v>1</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80" s="6">
         <v>0</v>
       </c>
       <c r="M80" s="12" t="s">
@@ -3706,37 +3703,37 @@
       <c r="A81" s="1">
         <v>8</v>
       </c>
-      <c r="B81" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="6">
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <v>0</v>
-      </c>
-      <c r="L81" s="6">
+      <c r="B81" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
+        <v>3</v>
+      </c>
+      <c r="F81" s="10">
+        <v>2</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0</v>
+      </c>
+      <c r="L81" s="10">
         <v>0</v>
       </c>
       <c r="M81" s="12" t="s">
@@ -3745,490 +3742,490 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>8</v>
-      </c>
-      <c r="B82" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="10">
-        <v>0</v>
-      </c>
-      <c r="E82" s="10">
-        <v>3</v>
-      </c>
-      <c r="F82" s="10">
-        <v>2</v>
-      </c>
-      <c r="G82" s="10">
-        <v>1</v>
-      </c>
-      <c r="H82" s="10">
-        <v>0</v>
-      </c>
-      <c r="I82" s="10">
-        <v>0</v>
-      </c>
-      <c r="J82" s="10">
-        <v>0</v>
-      </c>
-      <c r="K82" s="10">
-        <v>0</v>
-      </c>
-      <c r="L82" s="10">
+        <v>9</v>
+      </c>
+      <c r="B82" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="12">
+        <v>2</v>
+      </c>
+      <c r="F82" s="12">
+        <v>2</v>
+      </c>
+      <c r="G82" s="12">
+        <v>2</v>
+      </c>
+      <c r="H82" s="12">
+        <v>1</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+      <c r="K82" s="12">
+        <v>0</v>
+      </c>
+      <c r="L82" s="12">
         <v>0</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>9</v>
       </c>
-      <c r="B83" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E83" s="12">
-        <v>2</v>
-      </c>
-      <c r="F83" s="12">
-        <v>2</v>
-      </c>
-      <c r="G83" s="12">
-        <v>2</v>
-      </c>
-      <c r="H83" s="12">
-        <v>1</v>
-      </c>
-      <c r="I83" s="12">
-        <v>0</v>
-      </c>
-      <c r="J83" s="12">
-        <v>0</v>
-      </c>
-      <c r="K83" s="12">
-        <v>0</v>
-      </c>
-      <c r="L83" s="12">
+      <c r="B83" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="10">
+        <v>1</v>
+      </c>
+      <c r="E83" s="10">
+        <v>3</v>
+      </c>
+      <c r="F83" s="10">
+        <v>2</v>
+      </c>
+      <c r="G83" s="10">
+        <v>2</v>
+      </c>
+      <c r="H83" s="10">
+        <v>2</v>
+      </c>
+      <c r="I83" s="10">
+        <v>1</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <v>1</v>
+      </c>
+      <c r="L83" s="10">
         <v>0</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>9</v>
       </c>
-      <c r="B84" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="10">
-        <v>3</v>
-      </c>
-      <c r="F84" s="10">
-        <v>2</v>
-      </c>
-      <c r="G84" s="10">
-        <v>2</v>
-      </c>
-      <c r="H84" s="10">
-        <v>2</v>
-      </c>
-      <c r="I84" s="10">
-        <v>1</v>
-      </c>
-      <c r="J84" s="10">
-        <v>0</v>
-      </c>
-      <c r="K84" s="10">
-        <v>1</v>
-      </c>
-      <c r="L84" s="10">
+      <c r="B84" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="6">
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>3</v>
+      </c>
+      <c r="F84" s="6">
+        <v>2</v>
+      </c>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
         <v>0</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>9</v>
       </c>
-      <c r="B85" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <v>3</v>
-      </c>
-      <c r="F85" s="6">
-        <v>2</v>
-      </c>
-      <c r="G85" s="6">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6">
-        <v>0</v>
-      </c>
-      <c r="I85" s="6">
-        <v>1</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0</v>
-      </c>
-      <c r="K85" s="6">
-        <v>0</v>
-      </c>
-      <c r="L85" s="6">
+      <c r="B85" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0.667</v>
+      </c>
+      <c r="E85" s="10">
+        <v>3</v>
+      </c>
+      <c r="F85" s="10">
+        <v>3</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>2</v>
+      </c>
+      <c r="I85" s="10">
+        <v>1</v>
+      </c>
+      <c r="J85" s="10">
+        <v>1</v>
+      </c>
+      <c r="K85" s="10">
+        <v>0</v>
+      </c>
+      <c r="L85" s="10">
         <v>0</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>9</v>
       </c>
-      <c r="B86" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="10">
-        <v>0.667</v>
-      </c>
-      <c r="E86" s="10">
-        <v>3</v>
-      </c>
-      <c r="F86" s="10">
-        <v>3</v>
-      </c>
-      <c r="G86" s="10">
-        <v>0</v>
-      </c>
-      <c r="H86" s="10">
-        <v>2</v>
-      </c>
-      <c r="I86" s="10">
-        <v>1</v>
-      </c>
-      <c r="J86" s="10">
-        <v>1</v>
-      </c>
-      <c r="K86" s="10">
-        <v>0</v>
-      </c>
-      <c r="L86" s="10">
+      <c r="B86" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E86" s="6">
+        <v>3</v>
+      </c>
+      <c r="F86" s="6">
+        <v>2</v>
+      </c>
+      <c r="G86" s="6">
+        <v>1</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1</v>
+      </c>
+      <c r="I86" s="6">
+        <v>1</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
         <v>0</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>9</v>
       </c>
-      <c r="B87" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="E87" s="6">
-        <v>3</v>
-      </c>
-      <c r="F87" s="6">
-        <v>2</v>
-      </c>
-      <c r="G87" s="6">
-        <v>1</v>
-      </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-      <c r="I87" s="6">
-        <v>1</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0</v>
-      </c>
-      <c r="L87" s="6">
+      <c r="B87" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0.333</v>
+      </c>
+      <c r="E87" s="10">
+        <v>4</v>
+      </c>
+      <c r="F87" s="10">
+        <v>3</v>
+      </c>
+      <c r="G87" s="10">
+        <v>1</v>
+      </c>
+      <c r="H87" s="10">
+        <v>1</v>
+      </c>
+      <c r="I87" s="10">
+        <v>2</v>
+      </c>
+      <c r="J87" s="10">
+        <v>1</v>
+      </c>
+      <c r="K87" s="10">
+        <v>0</v>
+      </c>
+      <c r="L87" s="10">
         <v>0</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>9</v>
       </c>
-      <c r="B88" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="10">
+      <c r="B88" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="6">
         <v>0.333</v>
       </c>
-      <c r="E88" s="10">
-        <v>4</v>
-      </c>
-      <c r="F88" s="10">
-        <v>3</v>
-      </c>
-      <c r="G88" s="10">
-        <v>1</v>
-      </c>
-      <c r="H88" s="10">
-        <v>1</v>
-      </c>
-      <c r="I88" s="10">
-        <v>2</v>
-      </c>
-      <c r="J88" s="10">
-        <v>1</v>
-      </c>
-      <c r="K88" s="10">
-        <v>0</v>
-      </c>
-      <c r="L88" s="10">
+      <c r="E88" s="6">
+        <v>3</v>
+      </c>
+      <c r="F88" s="6">
+        <v>3</v>
+      </c>
+      <c r="G88" s="6">
+        <v>1</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1</v>
+      </c>
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0</v>
+      </c>
+      <c r="L88" s="6">
         <v>0</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>9</v>
       </c>
-      <c r="B89" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D89" s="6">
-        <v>0.333</v>
-      </c>
-      <c r="E89" s="6">
-        <v>3</v>
-      </c>
-      <c r="F89" s="6">
-        <v>3</v>
-      </c>
-      <c r="G89" s="6">
-        <v>1</v>
-      </c>
-      <c r="H89" s="6">
-        <v>1</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
+      <c r="B89" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
+      <c r="E89" s="10">
+        <v>4</v>
+      </c>
+      <c r="F89" s="10">
+        <v>3</v>
+      </c>
+      <c r="G89" s="10">
+        <v>1</v>
+      </c>
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+      <c r="I89" s="10">
+        <v>0</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0</v>
+      </c>
+      <c r="K89" s="10">
+        <v>0</v>
+      </c>
+      <c r="L89" s="10">
         <v>0</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>9</v>
       </c>
-      <c r="B90" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="10">
-        <v>0</v>
-      </c>
-      <c r="E90" s="10">
-        <v>4</v>
-      </c>
-      <c r="F90" s="10">
-        <v>3</v>
-      </c>
-      <c r="G90" s="10">
-        <v>1</v>
-      </c>
-      <c r="H90" s="10">
-        <v>0</v>
-      </c>
-      <c r="I90" s="10">
-        <v>0</v>
-      </c>
-      <c r="J90" s="10">
-        <v>0</v>
-      </c>
-      <c r="K90" s="10">
-        <v>0</v>
-      </c>
-      <c r="L90" s="10">
+      <c r="B90" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="6">
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <v>4</v>
+      </c>
+      <c r="F90" s="6">
+        <v>3</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="L90" s="6">
         <v>0</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>9</v>
       </c>
-      <c r="B91" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="6">
-        <v>0</v>
-      </c>
-      <c r="E91" s="6">
-        <v>4</v>
-      </c>
-      <c r="F91" s="6">
-        <v>3</v>
-      </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
-        <v>0</v>
-      </c>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0</v>
-      </c>
-      <c r="L91" s="6">
+      <c r="B91" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="10">
+        <v>0</v>
+      </c>
+      <c r="E91" s="10">
+        <v>3</v>
+      </c>
+      <c r="F91" s="10">
+        <v>3</v>
+      </c>
+      <c r="G91" s="10">
+        <v>1</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
+        <v>2</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0</v>
+      </c>
+      <c r="K91" s="10">
+        <v>0</v>
+      </c>
+      <c r="L91" s="10">
         <v>0</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>9</v>
-      </c>
-      <c r="B92" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="10">
-        <v>0</v>
-      </c>
-      <c r="E92" s="10">
-        <v>3</v>
-      </c>
-      <c r="F92" s="10">
-        <v>3</v>
-      </c>
-      <c r="G92" s="10">
-        <v>1</v>
-      </c>
-      <c r="H92" s="10">
-        <v>0</v>
-      </c>
-      <c r="I92" s="10">
-        <v>2</v>
-      </c>
-      <c r="J92" s="10">
-        <v>0</v>
-      </c>
-      <c r="K92" s="10">
-        <v>0</v>
-      </c>
-      <c r="L92" s="10">
+        <v>10</v>
+      </c>
+      <c r="B92" s="4">
+        <v>44609</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12">
+        <v>2</v>
+      </c>
+      <c r="F92" s="12">
+        <v>1</v>
+      </c>
+      <c r="G92" s="12">
+        <v>1</v>
+      </c>
+      <c r="H92" s="12">
+        <v>0</v>
+      </c>
+      <c r="I92" s="12">
+        <v>1</v>
+      </c>
+      <c r="J92" s="12">
+        <v>0</v>
+      </c>
+      <c r="K92" s="12">
+        <v>0</v>
+      </c>
+      <c r="L92" s="12">
         <v>0</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>10</v>
       </c>
-      <c r="B93" s="4">
-        <v>44609</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="12">
-        <v>0</v>
-      </c>
-      <c r="E93" s="12">
-        <v>2</v>
-      </c>
-      <c r="F93" s="12">
-        <v>1</v>
-      </c>
-      <c r="G93" s="12">
-        <v>1</v>
-      </c>
-      <c r="H93" s="12">
-        <v>0</v>
-      </c>
-      <c r="I93" s="12">
-        <v>1</v>
-      </c>
-      <c r="J93" s="12">
-        <v>0</v>
-      </c>
-      <c r="K93" s="12">
-        <v>0</v>
-      </c>
-      <c r="L93" s="12">
+      <c r="B93" s="8">
+        <v>44615</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
+        <v>4</v>
+      </c>
+      <c r="F93" s="10">
+        <v>2</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10">
+        <v>0</v>
+      </c>
+      <c r="J93" s="10">
+        <v>0</v>
+      </c>
+      <c r="K93" s="10">
+        <v>0</v>
+      </c>
+      <c r="L93" s="10">
         <v>0</v>
       </c>
       <c r="M93" s="12" t="s">
@@ -4239,37 +4236,37 @@
       <c r="A94" s="1">
         <v>10</v>
       </c>
-      <c r="B94" s="8">
-        <v>44615</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="10">
-        <v>0</v>
-      </c>
-      <c r="E94" s="10">
-        <v>4</v>
-      </c>
-      <c r="F94" s="10">
-        <v>2</v>
-      </c>
-      <c r="G94" s="10">
-        <v>0</v>
-      </c>
-      <c r="H94" s="10">
-        <v>0</v>
-      </c>
-      <c r="I94" s="10">
-        <v>0</v>
-      </c>
-      <c r="J94" s="10">
-        <v>0</v>
-      </c>
-      <c r="K94" s="10">
-        <v>0</v>
-      </c>
-      <c r="L94" s="10">
+      <c r="B94" s="4">
+        <v>44623</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="6">
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <v>3</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94" s="6">
+        <v>2</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0</v>
+      </c>
+      <c r="I94" s="6">
+        <v>3</v>
+      </c>
+      <c r="J94" s="6">
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94" s="6">
         <v>0</v>
       </c>
       <c r="M94" s="12" t="s">
@@ -4280,37 +4277,37 @@
       <c r="A95" s="1">
         <v>10</v>
       </c>
-      <c r="B95" s="4">
-        <v>44623</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="6">
-        <v>0</v>
-      </c>
-      <c r="E95" s="6">
-        <v>3</v>
-      </c>
-      <c r="F95" s="6">
-        <v>1</v>
-      </c>
-      <c r="G95" s="6">
-        <v>2</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <v>3</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <v>0</v>
-      </c>
-      <c r="L95" s="6">
+      <c r="B95" s="8">
+        <v>44628</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="E95" s="10">
+        <v>4</v>
+      </c>
+      <c r="F95" s="10">
+        <v>4</v>
+      </c>
+      <c r="G95" s="10">
+        <v>1</v>
+      </c>
+      <c r="H95" s="10">
+        <v>3</v>
+      </c>
+      <c r="I95" s="10">
+        <v>1</v>
+      </c>
+      <c r="J95" s="10">
+        <v>0</v>
+      </c>
+      <c r="K95" s="10">
+        <v>0</v>
+      </c>
+      <c r="L95" s="10">
         <v>0</v>
       </c>
       <c r="M95" s="12" t="s">
@@ -4321,37 +4318,37 @@
       <c r="A96" s="1">
         <v>10</v>
       </c>
-      <c r="B96" s="8">
-        <v>44628</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E96" s="10">
-        <v>4</v>
-      </c>
-      <c r="F96" s="10">
-        <v>4</v>
-      </c>
-      <c r="G96" s="10">
-        <v>1</v>
-      </c>
-      <c r="H96" s="10">
-        <v>3</v>
-      </c>
-      <c r="I96" s="10">
-        <v>1</v>
-      </c>
-      <c r="J96" s="10">
-        <v>0</v>
-      </c>
-      <c r="K96" s="10">
-        <v>0</v>
-      </c>
-      <c r="L96" s="10">
+      <c r="B96" s="4">
+        <v>44629</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0.667</v>
+      </c>
+      <c r="E96" s="6">
+        <v>3</v>
+      </c>
+      <c r="F96" s="6">
+        <v>3</v>
+      </c>
+      <c r="G96" s="6">
+        <v>0</v>
+      </c>
+      <c r="H96" s="6">
+        <v>2</v>
+      </c>
+      <c r="I96" s="6">
+        <v>2</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
+      <c r="L96" s="6">
         <v>0</v>
       </c>
       <c r="M96" s="12" t="s">
@@ -4362,37 +4359,37 @@
       <c r="A97" s="1">
         <v>10</v>
       </c>
-      <c r="B97" s="4">
-        <v>44629</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D97" s="6">
-        <v>0.667</v>
-      </c>
-      <c r="E97" s="6">
-        <v>3</v>
-      </c>
-      <c r="F97" s="6">
-        <v>3</v>
-      </c>
-      <c r="G97" s="6">
-        <v>0</v>
-      </c>
-      <c r="H97" s="6">
-        <v>2</v>
-      </c>
-      <c r="I97" s="6">
-        <v>2</v>
-      </c>
-      <c r="J97" s="6">
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
+      <c r="B97" s="8">
+        <v>44631</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="10">
+        <v>0</v>
+      </c>
+      <c r="E97" s="10">
+        <v>2</v>
+      </c>
+      <c r="F97" s="10">
+        <v>2</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10">
+        <v>0</v>
+      </c>
+      <c r="J97" s="10">
+        <v>0</v>
+      </c>
+      <c r="K97" s="10">
+        <v>0</v>
+      </c>
+      <c r="L97" s="10">
         <v>0</v>
       </c>
       <c r="M97" s="12" t="s">
@@ -4403,37 +4400,37 @@
       <c r="A98" s="1">
         <v>10</v>
       </c>
-      <c r="B98" s="8">
-        <v>44631</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="10">
-        <v>0</v>
-      </c>
-      <c r="E98" s="10">
-        <v>2</v>
-      </c>
-      <c r="F98" s="10">
-        <v>2</v>
-      </c>
-      <c r="G98" s="10">
-        <v>0</v>
-      </c>
-      <c r="H98" s="10">
-        <v>0</v>
-      </c>
-      <c r="I98" s="10">
-        <v>0</v>
-      </c>
-      <c r="J98" s="10">
-        <v>0</v>
-      </c>
-      <c r="K98" s="10">
-        <v>0</v>
-      </c>
-      <c r="L98" s="10">
+      <c r="B98" s="4">
+        <v>44635</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1</v>
+      </c>
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
+        <v>1</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
         <v>0</v>
       </c>
       <c r="M98" s="12" t="s">
@@ -4444,37 +4441,37 @@
       <c r="A99" s="1">
         <v>10</v>
       </c>
-      <c r="B99" s="4">
-        <v>44635</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1</v>
-      </c>
-      <c r="E99" s="6">
-        <v>1</v>
-      </c>
-      <c r="F99" s="6">
-        <v>1</v>
-      </c>
-      <c r="G99" s="6">
-        <v>1</v>
-      </c>
-      <c r="H99" s="6">
-        <v>1</v>
-      </c>
-      <c r="I99" s="6">
-        <v>1</v>
-      </c>
-      <c r="J99" s="6">
-        <v>1</v>
-      </c>
-      <c r="K99" s="6">
-        <v>0</v>
-      </c>
-      <c r="L99" s="6">
+      <c r="B99" s="8">
+        <v>44637</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10">
+        <v>3</v>
+      </c>
+      <c r="F99" s="10">
+        <v>2</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="I99" s="10">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0</v>
+      </c>
+      <c r="L99" s="10">
         <v>0</v>
       </c>
       <c r="M99" s="12" t="s">
@@ -4485,37 +4482,37 @@
       <c r="A100" s="1">
         <v>10</v>
       </c>
-      <c r="B100" s="8">
-        <v>44637</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="10">
-        <v>0</v>
-      </c>
-      <c r="E100" s="10">
-        <v>3</v>
-      </c>
-      <c r="F100" s="10">
-        <v>2</v>
-      </c>
-      <c r="G100" s="10">
-        <v>0</v>
-      </c>
-      <c r="H100" s="10">
-        <v>0</v>
-      </c>
-      <c r="I100" s="10">
-        <v>0</v>
-      </c>
-      <c r="J100" s="10">
-        <v>0</v>
-      </c>
-      <c r="K100" s="10">
-        <v>0</v>
-      </c>
-      <c r="L100" s="10">
+      <c r="B100" s="4">
+        <v>44638</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0</v>
+      </c>
+      <c r="E100" s="6">
+        <v>4</v>
+      </c>
+      <c r="F100" s="6">
+        <v>4</v>
+      </c>
+      <c r="G100" s="6">
+        <v>0</v>
+      </c>
+      <c r="H100" s="6">
+        <v>0</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
+      <c r="L100" s="6">
         <v>0</v>
       </c>
       <c r="M100" s="12" t="s">
@@ -4526,37 +4523,37 @@
       <c r="A101" s="1">
         <v>10</v>
       </c>
-      <c r="B101" s="4">
-        <v>44638</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="6">
-        <v>0</v>
-      </c>
-      <c r="E101" s="6">
-        <v>4</v>
-      </c>
-      <c r="F101" s="6">
-        <v>4</v>
-      </c>
-      <c r="G101" s="6">
-        <v>0</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <v>0</v>
-      </c>
-      <c r="K101" s="6">
-        <v>0</v>
-      </c>
-      <c r="L101" s="6">
+      <c r="B101" s="8">
+        <v>44642</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0.333</v>
+      </c>
+      <c r="E101" s="10">
+        <v>5</v>
+      </c>
+      <c r="F101" s="10">
+        <v>3</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101" s="10">
+        <v>1</v>
+      </c>
+      <c r="I101" s="10">
+        <v>0</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0</v>
+      </c>
+      <c r="K101" s="10">
+        <v>0</v>
+      </c>
+      <c r="L101" s="10">
         <v>0</v>
       </c>
       <c r="M101" s="12" t="s">
@@ -4564,43 +4561,43 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="A102">
         <v>10</v>
       </c>
-      <c r="B102" s="8">
-        <v>44642</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="10">
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102">
         <v>0.333</v>
       </c>
-      <c r="E102" s="10">
-        <v>5</v>
-      </c>
-      <c r="F102" s="10">
-        <v>3</v>
-      </c>
-      <c r="G102" s="10">
-        <v>0</v>
-      </c>
-      <c r="H102" s="10">
-        <v>1</v>
-      </c>
-      <c r="I102" s="10">
-        <v>0</v>
-      </c>
-      <c r="J102" s="10">
-        <v>0</v>
-      </c>
-      <c r="K102" s="10">
-        <v>0</v>
-      </c>
-      <c r="L102" s="10">
-        <v>0</v>
-      </c>
-      <c r="M102" s="12" t="s">
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4642,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="M103" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4683,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4724,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4765,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4806,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4847,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4888,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4929,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4970,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5011,131 +5008,17 @@
         <v>0</v>
       </c>
       <c r="M112" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>20</v>
-      </c>
-      <c r="B113" t="s">
-        <v>26</v>
-      </c>
-      <c r="C113" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>90</v>
-      </c>
-      <c r="B114" t="s">
         <v>24</v>
       </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114">
-        <v>0.33</v>
-      </c>
-      <c r="E114">
-        <v>3</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>90</v>
-      </c>
-      <c r="B115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115">
-        <v>0.33</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>3</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
@@ -7131,15 +7014,6 @@
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780" s="16"/>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A781" s="16"/>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A782" s="16"/>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A783" s="16"/>
     </row>
   </sheetData>
 </worksheet>
